--- a/[[ 입출금 내역서 ]]/구글스프레드시트 파일/황악회원 입금현황.xlsx
+++ b/[[ 입출금 내역서 ]]/구글스프레드시트 파일/황악회원 입금현황.xlsx
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
-  <si>
-    <t>황악회원 입금현황</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t xml:space="preserve">⏰ 매월 25일을 기준으로 처리! </t>
   </si>
@@ -61,7 +58,7 @@
     <t>12월</t>
   </si>
   <si>
-    <t>개별납입금액</t>
+    <t>개별납입금</t>
   </si>
   <si>
     <t>미납월수</t>
@@ -137,6 +134,31 @@
   </si>
   <si>
     <t>월별총액</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Malgun Gothic"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+  </si>
+  <si>
+    <t>gagebu의 사본-2025.02.12 new</t>
+  </si>
+  <si>
+    <t>총합계액</t>
   </si>
   <si>
     <t>월회비</t>
@@ -179,11 +201,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$₩-412] #,##0원"/>
+    <numFmt numFmtId="166" formatCode="&quot;₩&quot;#,##0;[Red]&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -219,17 +242,22 @@
     <font>
       <b/>
       <sz val="16.0"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFEFEFEF"/>
       <name val="Malgun Gothic"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color rgb="FFFF0000"/>
+      <sz val="13.0"/>
+      <color rgb="FF0000FF"/>
       <name val="Malgun Gothic"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="13.0"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
     </font>
@@ -239,18 +267,51 @@
       <name val="Malgun Gothic"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="13.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,8 +320,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF134F5C"/>
+        <bgColor rgb="FF134F5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
@@ -269,8 +342,20 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border/>
     <border>
       <left/>
@@ -322,11 +407,24 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -354,52 +452,85 @@
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="1" textRotation="255" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="4" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="12" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -441,15 +572,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="876300" cy="419100"/>
+    <xdr:ext cx="895350" cy="428625"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvPr id="2" name="Shape 2" title="그림"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -498,7 +629,7 @@
     <xdr:ext cx="304800" cy="180975"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image2.png" title="이미지"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -519,18 +650,46 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180975" cy="171450"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4914900" cy="590550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="이미지"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -748,7 +907,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -771,16 +930,14 @@
     <row r="1" ht="9.75" customHeight="1"/>
     <row r="2" ht="42.0" customHeight="1">
       <c r="B2" s="1"/>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
@@ -793,697 +950,728 @@
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="J5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="Q5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="16">
         <f>COUNTIF(C6:N6, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <f t="shared" ref="P6:P26" si="1">COUNTIF($C6:INDEX($C6:$N6, MONTH(TODAY())-1), "&lt;&gt;O")</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="18"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17">
+      <c r="C7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="16">
         <f>COUNTIF(C7:N7, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="7"/>
-      <c r="B8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17">
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16">
         <f>COUNTIF(C8:N8, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17">
+      <c r="B9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16">
         <f>COUNTIF(C9:N9, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17">
+      <c r="B10" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16">
         <f>COUNTIF(C10:N10, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="19"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16">
+        <f>COUNTIF(C11:N11, "O") * '항목'!$B$4</f>
+        <v>10000</v>
+      </c>
+      <c r="P11" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18"/>
+      <c r="U11" s="21"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17">
-        <f>COUNTIF(C11:N11, "O") * '항목'!$B$4</f>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="16">
+        <f>COUNTIF(C12:N12, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P12" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="19"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="20" t="s">
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17">
-        <f>COUNTIF(C12:N12, "O") * '항목'!$B$4</f>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16">
+        <f>COUNTIF(C13:N13, "O") * '항목'!$B$4</f>
+        <v>10000</v>
+      </c>
+      <c r="P13" s="17">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P12" s="18">
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="16">
+        <f>COUNTIF(C14:N14, "O") * '항목'!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="19"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17">
-        <f>COUNTIF(C13:N13, "O") * '항목'!$B$4</f>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16">
+        <f>COUNTIF(C15:N15, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P15" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16">
+        <f>COUNTIF(C16:N16, "O") * '항목'!$B$4</f>
+        <v>10000</v>
+      </c>
+      <c r="P16" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17">
-        <f>COUNTIF(C14:N14, "O") * '항목'!$B$4</f>
+      <c r="Q16" s="18"/>
+      <c r="S16" s="22"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16">
+        <f>COUNTIF(C17:N17, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P17" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17">
-        <f>COUNTIF(C15:N15, "O") * '항목'!$B$4</f>
+      <c r="Q17" s="18"/>
+      <c r="S17" s="22"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16">
+        <f>COUNTIF(C18:N18, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P18" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="18"/>
+      <c r="S18" s="22"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16">
+        <f>COUNTIF(C19:N19, "O") * '항목'!$B$4</f>
+        <v>10000</v>
+      </c>
+      <c r="P19" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17">
-        <f>COUNTIF(C16:N16, "O") * '항목'!$B$4</f>
+      <c r="Q19" s="18"/>
+      <c r="S19" s="22"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16">
+        <f>COUNTIF(C20:N20, "O") * '항목'!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="18"/>
+      <c r="S20" s="22"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16">
+        <f>COUNTIF(C21:N21, "O") * '항목'!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="18"/>
+      <c r="S21" s="22"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16">
+        <f>COUNTIF(C22:N22, "O") * '항목'!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16">
+        <f>COUNTIF(C23:N23, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P23" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17">
-        <f>COUNTIF(C17:N17, "O") * '항목'!$B$4</f>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16">
+        <f>COUNTIF(C24:N24, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P24" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17">
-        <f>COUNTIF(C18:N18, "O") * '항목'!$B$4</f>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16">
+        <f>COUNTIF(C25:N25, "O") * '항목'!$B$4</f>
         <v>10000</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P25" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17">
-        <f>COUNTIF(C19:N19, "O") * '항목'!$B$4</f>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16">
+        <f>COUNTIF(C26:N26, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P26" s="17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17">
-        <f>COUNTIF(C20:N20, "O") * '항목'!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17">
-        <f>COUNTIF(C21:N21, "O") * '항목'!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17">
-        <f>COUNTIF(C22:N22, "O") * '항목'!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17">
-        <f>COUNTIF(C23:N23, "O") * '항목'!$B$4</f>
-        <v>10000</v>
-      </c>
-      <c r="P23" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17">
-        <f>COUNTIF(C24:N24, "O") * '항목'!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" ht="19.5" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17">
-        <f>COUNTIF(C25:N25, "O") * '항목'!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17">
-        <f>COUNTIF(C26:N26, "O") * '항목'!$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q26" s="19"/>
+      <c r="Q26" s="18"/>
     </row>
     <row r="27" ht="34.5" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="21">
+      <c r="B27" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="24">
         <f>COUNTIF(C6:C25, "O") * '항목'!$B$4</f>
-        <v>60000</v>
-      </c>
-      <c r="D27" s="21">
+        <v>80000</v>
+      </c>
+      <c r="D27" s="24">
         <f>COUNTIF(D6:D25, "O") * '항목'!$B$4</f>
-        <v>20000</v>
-      </c>
-      <c r="E27" s="21">
+        <v>30000</v>
+      </c>
+      <c r="E27" s="24">
         <f>COUNTIF(E6:E25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="24">
         <f>COUNTIF(F6:F25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="24">
         <f>COUNTIF(G6:G25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="24">
         <f>COUNTIF(H6:H25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="24">
         <f>COUNTIF(I6:I25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="24">
         <f>COUNTIF(J6:J25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="24">
         <f>COUNTIF(K6:K25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="24">
         <f>COUNTIF(L6:L25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="24">
         <f>COUNTIF(M6:M25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="N27" s="21">
+      <c r="N27" s="24">
         <f>COUNTIF(N6:N25, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O27" s="25">
         <f>COUNTIF(C27:N27, "O") * '항목'!$B$4</f>
         <v>0</v>
       </c>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1"/>
-    <row r="29" ht="16.5" customHeight="1"/>
+      <c r="P27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" ht="34.5" customHeight="1">
+      <c r="B28" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="29">
+        <f>SUM(C27:N27)</f>
+        <v>110000</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c r="C29" s="33"/>
+    </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="D30" s="7"/>
     </row>
@@ -2461,12 +2649,13 @@
     <row r="1000" ht="16.5" customHeight="1"/>
     <row r="1001" ht="16.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="B3:Q3"/>
     <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:N26">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -2483,10 +2672,13 @@
       <formula1>"O,X"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="Q27"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
+  <pageSetup fitToWidth="0" paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2508,17 +2700,17 @@
     <row r="1" ht="11.25" customHeight="1"/>
     <row r="2" ht="16.5" customHeight="1"/>
     <row r="3" ht="16.5" customHeight="1">
-      <c r="B3" s="12" t="s">
-        <v>40</v>
+      <c r="B3" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
-      <c r="B4" s="24">
+      <c r="B4" s="35">
         <v>10000.0</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="B5" s="24">
+      <c r="B5" s="35">
         <v>15000.0</v>
       </c>
     </row>
@@ -2527,18 +2719,18 @@
     <row r="8" ht="16.5" customHeight="1"/>
     <row r="9" ht="16.5" customHeight="1"/>
     <row r="10" ht="16.5" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>41</v>
+      <c r="B10" s="34" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="B11" s="25" t="s">
-        <v>18</v>
+      <c r="B11" s="36" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="B12" s="25" t="s">
-        <v>42</v>
+      <c r="B12" s="36" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1"/>
@@ -2548,23 +2740,23 @@
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1">
-      <c r="C19" s="26" t="s">
-        <v>43</v>
+      <c r="C19" s="37" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
       <c r="C21" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="C22" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1"/>
